--- a/Instances/G5047313_NonStationary_b4_fe25_el_rk50_ll1_l40_HTrue_c0.xlsx
+++ b/Instances/G5047313_NonStationary_b4_fe25_el_rk50_ll1_l40_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>12.778564453125</v>
+        <v>11.64554850260417</v>
       </c>
       <c r="I2" t="n">
         <v>448</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>6.05902099609375</v>
+        <v>6.127421061197917</v>
       </c>
       <c r="I3" t="n">
         <v>496</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>9.479695638020834</v>
+        <v>11.25996907552083</v>
       </c>
       <c r="I4" t="n">
         <v>492</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>17.81593831380208</v>
+        <v>18.48284912109375</v>
       </c>
       <c r="I5" t="n">
         <v>444</v>
@@ -1427,16 +1427,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1462,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C10" t="n">
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
+        <v>49</v>
+      </c>
+      <c r="D11" t="n">
         <v>38</v>
       </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
       <c r="E11" t="n">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.625</v>
+        <v>7.5</v>
       </c>
       <c r="C4" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>10.75</v>
       </c>
       <c r="E4" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1875</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>2.625</v>
+        <v>5.0625</v>
       </c>
       <c r="D5" t="n">
-        <v>7.875</v>
+        <v>14.625</v>
       </c>
       <c r="E5" t="n">
-        <v>19.6875</v>
+        <v>14.8125</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.53125</v>
+        <v>17.5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.09375</v>
+        <v>5.03125</v>
       </c>
       <c r="D6" t="n">
-        <v>14.21875</v>
+        <v>16.1875</v>
       </c>
       <c r="E6" t="n">
-        <v>16.84375</v>
+        <v>32.8125</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.40625</v>
+        <v>8.671875</v>
       </c>
       <c r="C7" t="n">
-        <v>5.625</v>
+        <v>7.265625</v>
       </c>
       <c r="D7" t="n">
-        <v>9.140625</v>
+        <v>9.609375</v>
       </c>
       <c r="E7" t="n">
-        <v>40.3125</v>
+        <v>23.203125</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.5078125</v>
+        <v>12.59375</v>
       </c>
       <c r="C8" t="n">
-        <v>12.3515625</v>
+        <v>2.421875</v>
       </c>
       <c r="D8" t="n">
-        <v>18.1640625</v>
+        <v>11.625</v>
       </c>
       <c r="E8" t="n">
-        <v>5.328125</v>
+        <v>19.375</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.34765625</v>
+        <v>15.50390625</v>
       </c>
       <c r="C9" t="n">
-        <v>7.3828125</v>
+        <v>6.890625</v>
       </c>
       <c r="D9" t="n">
-        <v>13.53515625</v>
+        <v>14.51953125</v>
       </c>
       <c r="E9" t="n">
-        <v>20.42578125</v>
+        <v>31.74609375</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.587890625</v>
+        <v>23.8125</v>
       </c>
       <c r="C10" t="n">
         <v>7.44140625</v>
       </c>
       <c r="D10" t="n">
-        <v>11.658203125</v>
+        <v>14.138671875</v>
       </c>
       <c r="E10" t="n">
-        <v>7.44140625</v>
+        <v>32.494140625</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.94140625</v>
+        <v>7.7197265625</v>
       </c>
       <c r="C11" t="n">
+        <v>12.2021484375</v>
+      </c>
+      <c r="D11" t="n">
         <v>9.462890625</v>
       </c>
-      <c r="D11" t="n">
-        <v>12.451171875</v>
-      </c>
       <c r="E11" t="n">
-        <v>35.361328125</v>
+        <v>21.1669921875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.72509765625</v>
+        <v>18.962890625</v>
       </c>
       <c r="C12" t="n">
-        <v>9.73095703125</v>
+        <v>13.4736328125</v>
       </c>
       <c r="D12" t="n">
-        <v>14.72119140625</v>
+        <v>15.22021484375</v>
       </c>
       <c r="E12" t="n">
-        <v>46.4091796875</v>
+        <v>25.20068359375</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17.48291015625</v>
+        <v>18.48193359375</v>
       </c>
       <c r="C13" t="n">
-        <v>5.244873046875</v>
+        <v>10.239990234375</v>
       </c>
       <c r="D13" t="n">
-        <v>7.9921875</v>
+        <v>18.9814453125</v>
       </c>
       <c r="E13" t="n">
-        <v>18.731689453125</v>
+        <v>17.233154296875</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
